--- a/testData/double_license_test_data.xlsx
+++ b/testData/double_license_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="add_double_license" sheetId="3" r:id="rId1"/>
@@ -16,14 +16,13 @@
     <sheet name="apply_history" sheetId="12" r:id="rId7"/>
     <sheet name="personal_history" sheetId="13" r:id="rId8"/>
     <sheet name="all_history" sheetId="14" r:id="rId9"/>
-    <sheet name="department_history" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="77">
   <si>
     <t>root</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -41,10 +40,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>用户xx发送双人审批成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>授权人</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -138,10 +133,6 @@
   </si>
   <si>
     <t>待办</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>xx</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -194,23 +185,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>x</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>x</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>个人历史查询已通过流程</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -220,14 +194,6 @@
   </si>
   <si>
     <t>全部历史查询已通过流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门历史查询未通过流程</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门历史查询已通过流程</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -315,47 +281,75 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>test_F09_S33_search_010</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>cyysr</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cyyx</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2 cyyx 1 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户cyyx同意双人审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户cyyx拒绝双人审批</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>172.16.10.23</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 cyyx 1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>双人授权测试</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyz发送双人审批成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cyyy qawsed@123 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyy同意双人审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户cyyy拒绝双人审批</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cyyz</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cyyy 1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qawsed@123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 cyyz qawsed@123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 cyyz qawsed@123 </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户登录</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 secAdmin secAdmin@123</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -436,6 +430,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -511,12 +512,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,9 +585,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -876,7 +885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -892,10 +901,10 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="12" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C1" s="11" t="s">
         <v>2</v>
@@ -904,7 +913,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -912,12 +921,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="13"/>
       <c r="E2" s="13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -933,158 +942,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="23.75" customWidth="1"/>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="13" max="13" width="28.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18.75">
-      <c r="A1" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="3">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="13">
-        <v>2018</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1094,82 +957,95 @@
     <col min="4" max="4" width="24.875" customWidth="1"/>
     <col min="5" max="5" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="19.5" customWidth="1"/>
-    <col min="7" max="7" width="32.75" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="18.75">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="7" customFormat="1" ht="14.25">
+        <v>72</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="7" customFormat="1" ht="14.25">
       <c r="A2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E2" s="6">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25">
+        <v>73</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.25">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>57</v>
+        <v>73</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1178,7 +1054,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1191,30 +1067,30 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75">
       <c r="A1" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1228,7 +1104,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1241,36 +1117,36 @@
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="17">
         <v>1</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1160,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1298,36 +1174,36 @@
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>13</v>
-      </c>
       <c r="E1" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1341,13 +1217,13 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="14.375" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="7" max="7" width="13.875" customWidth="1"/>
@@ -1357,57 +1233,57 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="15" t="s">
-        <v>26</v>
-      </c>
       <c r="L1" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="3">
         <v>1</v>
@@ -1422,28 +1298,28 @@
         <v>2018</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -1452,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3">
         <v>2018</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1475,10 +1351,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1487,56 +1363,60 @@
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="4" max="4" width="15.875" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="10" max="10" width="35.125" customWidth="1"/>
+    <col min="10" max="10" width="19.625" customWidth="1"/>
+    <col min="11" max="11" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75">
+    <row r="1" spans="1:11" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25">
+      <c r="A2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>34</v>
-      </c>
       <c r="C2" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3">
         <v>23</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3">
         <v>0</v>
@@ -1545,30 +1425,33 @@
         <v>2018</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3">
         <v>0</v>
@@ -1577,13 +1460,16 @@
         <v>2018</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>63</v>
+        <v>6</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1596,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1614,66 +1500,66 @@
   <sheetData>
     <row r="1" spans="1:13" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="H1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>26</v>
-      </c>
       <c r="M1" s="15" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3">
         <v>23</v>
@@ -1682,55 +1568,55 @@
         <v>0</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1741,10 +1627,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1755,71 +1641,75 @@
     <col min="6" max="6" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="15.875" customWidth="1"/>
     <col min="9" max="9" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="26.875" customWidth="1"/>
+    <col min="13" max="13" width="24.125" customWidth="1"/>
+    <col min="14" max="14" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75">
+    <row r="1" spans="1:14" ht="18.75">
       <c r="A1" s="18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="E1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="G1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>34</v>
-      </c>
       <c r="D2" s="13" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="3">
         <v>23</v>
@@ -1828,40 +1718,43 @@
         <v>0</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>6</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="19" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="I3" s="3">
         <v>0</v>
@@ -1870,13 +1763,14 @@
         <v>2018</v>
       </c>
       <c r="K3" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>65</v>
+        <v>6</v>
+      </c>
+      <c r="M3" s="13"/>
+      <c r="N3" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
